--- a/Excel/Excel Charts Tutorial File.xlsx
+++ b/Excel/Excel Charts Tutorial File.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/579481080490e445/Documents/Excel Series Excels/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\sql_practice\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AA04C7DD-8BCF-4FE5-B548-55CBD210AC8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAFBF5A1-E3F8-4143-95C5-3FB0A0A7E3B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{03CEABDE-3C67-4836-9FDD-609F2D7E7F08}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="14586" xr2:uid="{03CEABDE-3C67-4836-9FDD-609F2D7E7F08}"/>
   </bookViews>
   <sheets>
     <sheet name="Sales" sheetId="3" r:id="rId1"/>
@@ -174,10 +174,9713 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+                <a:ea typeface="+mj-ea"/>
+                <a:cs typeface="+mj-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Products Sold per Month</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sales!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Paper</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sales!$B$2:$N$2</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sales!$B$2:$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>January</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>February </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>March</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>April</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>June</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>July</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>August</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>September</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>October</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>November</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>December</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sales!$B$3:$N$3</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sales!$B$3:$M$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>485</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>347</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>736</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>288</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EEE6-4874-8571-ACA59B5CDA69}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sales!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Printer</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sales!$B$2:$N$2</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sales!$B$2:$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>January</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>February </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>March</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>April</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>June</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>July</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>August</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>September</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>October</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>November</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>December</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sales!$B$4:$N$4</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sales!$B$4:$M$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>91</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-EEE6-4874-8571-ACA59B5CDA69}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sales!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Manila Folder</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sales!$B$2:$N$2</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sales!$B$2:$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>January</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>February </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>March</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>April</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>June</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>July</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>August</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>September</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>October</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>November</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>December</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sales!$B$5:$N$5</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sales!$B$5:$M$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>180</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-EEE6-4874-8571-ACA59B5CDA69}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sales!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Staplers</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sales!$B$2:$N$2</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sales!$B$2:$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>January</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>February </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>March</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>April</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>June</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>July</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>August</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>September</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>October</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>November</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>December</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sales!$B$6:$N$6</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sales!$B$6:$M$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-EEE6-4874-8571-ACA59B5CDA69}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sales!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3 Ring Binder</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sales!$B$2:$N$2</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sales!$B$2:$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>January</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>February </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>March</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>April</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>June</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>July</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>August</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>September</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>October</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>November</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>December</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sales!$B$7:$N$7</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sales!$B$7:$M$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>103</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-EEE6-4874-8571-ACA59B5CDA69}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sales!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Highlighters</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sales!$B$2:$N$2</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sales!$B$2:$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>January</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>February </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>March</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>April</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>June</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>July</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>August</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>September</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>October</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>November</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>December</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sales!$B$8:$N$8</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sales!$B$8:$M$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>31</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-EEE6-4874-8571-ACA59B5CDA69}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sales!$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Pens</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sales!$B$2:$N$2</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sales!$B$2:$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>January</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>February </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>March</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>April</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>June</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>July</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>August</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>September</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>October</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>November</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>December</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sales!$B$9:$N$9</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sales!$B$9:$M$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-EEE6-4874-8571-ACA59B5CDA69}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="267"/>
+        <c:axId val="81587135"/>
+        <c:axId val="81587615"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="7"/>
+                <c:order val="7"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sales!$A$10</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Total Items Per Month</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="60000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sales!$B$2:$N$2</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sales!$B$2:$M$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>January</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>February </c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>March</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>April</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>May</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>June</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>July</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>August</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>September</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>October</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>November</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>December</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sales!$B$10:$N$10</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sales!$B$10:$M$10</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>898</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>585</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>547</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>1113</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>571</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>871</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>888</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>678</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>987</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>442</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>776</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>721</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000007-EEE6-4874-8571-ACA59B5CDA69}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="81587135"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="81587615"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="81587615"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="81587135"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:pattFill prst="ltDnDiag">
+          <a:fgClr>
+            <a:schemeClr val="dk1">
+              <a:lumMod val="15000"/>
+              <a:lumOff val="85000"/>
+            </a:schemeClr>
+          </a:fgClr>
+          <a:bgClr>
+            <a:schemeClr val="lt1"/>
+          </a:bgClr>
+        </a:pattFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sales!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Paper</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sales!$B$2:$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>January</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>February </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>March</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>April</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>June</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>July</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>August</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>September</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>October</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>November</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>December</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sales!$B$3:$M$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>485</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>347</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>736</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>288</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5D0B-4EC1-88B1-E97E3C5F9983}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sales!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Manila Folder</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sales!$B$2:$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>January</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>February </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>March</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>April</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>June</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>July</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>August</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>September</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>October</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>November</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>December</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sales!$B$5:$M$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>180</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5D0B-4EC1-88B1-E97E3C5F9983}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sales!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3 Ring Binder</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sales!$B$2:$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>January</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>February </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>March</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>April</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>June</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>July</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>August</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>September</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>October</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>November</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>December</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sales!$B$7:$M$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>103</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-5D0B-4EC1-88B1-E97E3C5F9983}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="99077855"/>
+        <c:axId val="99078335"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sales!$A$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Printer</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent4"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sales!$B$2:$M$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>January</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>February </c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>March</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>April</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>May</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>June</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>July</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>August</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>September</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>October</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>November</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>December</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sales!$B$4:$M$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>75</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>40</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>65</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>24</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>71</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>57</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>61</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>34</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>41</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>58</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>91</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-5D0B-4EC1-88B1-E97E3C5F9983}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sales!$A$6</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Staplers</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sales!$B$2:$M$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>January</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>February </c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>March</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>April</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>May</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>June</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>July</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>August</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>September</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>October</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>November</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>December</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sales!$B$6:$M$6</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>25</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>18</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>33</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>17</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>37</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>35</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>24</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>19</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>16</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-5D0B-4EC1-88B1-E97E3C5F9983}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="5"/>
+                <c:order val="5"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sales!$A$8</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Highlighters</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent6">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sales!$B$2:$M$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>January</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>February </c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>March</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>April</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>May</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>June</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>July</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>August</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>September</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>October</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>November</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>December</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sales!$B$8:$M$8</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>40</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>33</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>48</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>25</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>52</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>47</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>39</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>34</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>31</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000005-5D0B-4EC1-88B1-E97E3C5F9983}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="6"/>
+                <c:order val="6"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sales!$A$9</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Pens</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2">
+                        <a:lumMod val="80000"/>
+                        <a:lumOff val="20000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sales!$B$2:$M$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>January</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>February </c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>March</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>April</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>May</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>June</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>July</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>August</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>September</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>October</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>November</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>December</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sales!$B$9:$M$9</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>21</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>29</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>13</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>33</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>28</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>31</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>15</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>12</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000006-5D0B-4EC1-88B1-E97E3C5F9983}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="99077855"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="99078335"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="99078335"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="99077855"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+                <a:ea typeface="+mj-ea"/>
+                <a:cs typeface="+mj-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Products Sold per Month</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sales!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Paper</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sales!$B$2:$N$2</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sales!$B$2:$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>January</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>February </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>March</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>April</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>June</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>July</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>August</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>September</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>October</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>November</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>December</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sales!$B$3:$N$3</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sales!$B$3:$M$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>485</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>347</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>736</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>288</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D15C-4EAF-BE62-C2371B02FA35}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sales!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Printer</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sales!$B$2:$N$2</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sales!$B$2:$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>January</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>February </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>March</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>April</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>June</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>July</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>August</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>September</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>October</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>November</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>December</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sales!$B$4:$N$4</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sales!$B$4:$M$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>91</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D15C-4EAF-BE62-C2371B02FA35}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sales!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Manila Folder</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sales!$B$2:$N$2</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sales!$B$2:$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>January</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>February </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>March</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>April</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>June</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>July</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>August</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>September</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>October</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>November</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>December</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sales!$B$5:$N$5</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sales!$B$5:$M$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>180</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D15C-4EAF-BE62-C2371B02FA35}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sales!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Staplers</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sales!$B$2:$N$2</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sales!$B$2:$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>January</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>February </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>March</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>April</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>June</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>July</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>August</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>September</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>October</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>November</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>December</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sales!$B$6:$N$6</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sales!$B$6:$M$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-D15C-4EAF-BE62-C2371B02FA35}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sales!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3 Ring Binder</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sales!$B$2:$N$2</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sales!$B$2:$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>January</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>February </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>March</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>April</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>June</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>July</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>August</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>September</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>October</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>November</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>December</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sales!$B$7:$N$7</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sales!$B$7:$M$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>103</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-D15C-4EAF-BE62-C2371B02FA35}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sales!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Highlighters</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sales!$B$2:$N$2</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sales!$B$2:$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>January</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>February </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>March</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>April</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>June</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>July</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>August</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>September</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>October</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>November</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>December</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sales!$B$8:$N$8</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sales!$B$8:$M$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>31</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-D15C-4EAF-BE62-C2371B02FA35}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sales!$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Pens</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sales!$B$2:$N$2</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sales!$B$2:$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>January</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>February </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>March</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>April</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>June</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>July</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>August</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>September</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>October</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>November</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>December</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sales!$B$9:$N$9</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sales!$B$9:$M$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-D15C-4EAF-BE62-C2371B02FA35}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="267"/>
+        <c:axId val="81587135"/>
+        <c:axId val="81587615"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="7"/>
+                <c:order val="7"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sales!$A$10</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Total Items Per Month</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="60000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sales!$B$2:$N$2</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sales!$B$2:$M$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>January</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>February </c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>March</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>April</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>May</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>June</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>July</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>August</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>September</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>October</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>November</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>December</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sales!$B$10:$N$10</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sales!$B$10:$M$10</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>898</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>585</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>547</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>1113</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>571</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>871</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>888</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>678</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>987</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>442</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>776</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>721</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000007-D15C-4EAF-BE62-C2371B02FA35}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="81587135"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="81587615"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="81587615"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="81587135"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:pattFill prst="ltDnDiag">
+          <a:fgClr>
+            <a:schemeClr val="dk1">
+              <a:lumMod val="15000"/>
+              <a:lumOff val="85000"/>
+            </a:schemeClr>
+          </a:fgClr>
+          <a:bgClr>
+            <a:schemeClr val="lt1"/>
+          </a:bgClr>
+        </a:pattFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+                <a:ea typeface="+mj-ea"/>
+                <a:cs typeface="+mj-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Products Sold per Month</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sales!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Paper</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sales!$B$2:$N$2</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sales!$B$2:$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>January</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>February </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>March</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>April</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>June</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>July</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>August</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>September</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>October</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>November</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>December</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sales!$B$3:$N$3</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sales!$B$3:$M$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>485</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>347</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>736</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>288</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F18E-451C-80A1-DF1765F094B0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sales!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Printer</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sales!$B$2:$N$2</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sales!$B$2:$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>January</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>February </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>March</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>April</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>June</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>July</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>August</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>September</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>October</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>November</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>December</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sales!$B$4:$N$4</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sales!$B$4:$M$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>91</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F18E-451C-80A1-DF1765F094B0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sales!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Manila Folder</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sales!$B$2:$N$2</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sales!$B$2:$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>January</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>February </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>March</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>April</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>June</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>July</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>August</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>September</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>October</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>November</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>December</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sales!$B$5:$N$5</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sales!$B$5:$M$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>180</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F18E-451C-80A1-DF1765F094B0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sales!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Staplers</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sales!$B$2:$N$2</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sales!$B$2:$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>January</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>February </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>March</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>April</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>June</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>July</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>August</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>September</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>October</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>November</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>December</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sales!$B$6:$N$6</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sales!$B$6:$M$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-F18E-451C-80A1-DF1765F094B0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sales!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3 Ring Binder</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sales!$B$2:$N$2</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sales!$B$2:$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>January</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>February </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>March</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>April</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>June</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>July</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>August</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>September</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>October</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>November</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>December</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sales!$B$7:$N$7</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sales!$B$7:$M$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>103</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-F18E-451C-80A1-DF1765F094B0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sales!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Highlighters</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sales!$B$2:$N$2</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sales!$B$2:$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>January</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>February </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>March</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>April</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>June</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>July</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>August</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>September</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>October</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>November</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>December</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sales!$B$8:$N$8</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sales!$B$8:$M$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>31</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-F18E-451C-80A1-DF1765F094B0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sales!$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Pens</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sales!$B$2:$N$2</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sales!$B$2:$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>January</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>February </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>March</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>April</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>June</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>July</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>August</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>September</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>October</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>November</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>December</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sales!$B$9:$N$9</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sales!$B$9:$M$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-F18E-451C-80A1-DF1765F094B0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="267"/>
+        <c:axId val="81587135"/>
+        <c:axId val="81587615"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="7"/>
+                <c:order val="7"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sales!$A$10</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Total Items Per Month</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="60000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sales!$B$2:$N$2</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sales!$B$2:$M$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>January</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>February </c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>March</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>April</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>May</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>June</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>July</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>August</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>September</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>October</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>November</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>December</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sales!$B$10:$N$10</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sales!$B$10:$M$10</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>898</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>585</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>547</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>1113</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>571</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>871</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>888</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>678</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>987</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>442</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>776</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>721</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000007-F18E-451C-80A1-DF1765F094B0}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="81587135"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="81587615"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="81587615"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="81587135"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:pattFill prst="ltDnDiag">
+          <a:fgClr>
+            <a:schemeClr val="dk1">
+              <a:lumMod val="15000"/>
+              <a:lumOff val="85000"/>
+            </a:schemeClr>
+          </a:fgClr>
+          <a:bgClr>
+            <a:schemeClr val="lt1"/>
+          </a:bgClr>
+        </a:pattFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sales!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Paper</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sales!$B$2:$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>January</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>February </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>March</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>April</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>June</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>July</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>August</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>September</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>October</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>November</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>December</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sales!$B$3:$M$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>485</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>347</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>736</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>288</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5D2B-4C90-90DA-A14D8DC45BC7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sales!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Manila Folder</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sales!$B$2:$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>January</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>February </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>March</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>April</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>June</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>July</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>August</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>September</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>October</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>November</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>December</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sales!$B$5:$M$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>180</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5D2B-4C90-90DA-A14D8DC45BC7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sales!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3 Ring Binder</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sales!$B$2:$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>January</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>February </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>March</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>April</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>June</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>July</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>August</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>September</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>October</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>November</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>December</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sales!$B$7:$M$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>103</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5D2B-4C90-90DA-A14D8DC45BC7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="99077855"/>
+        <c:axId val="99078335"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sales!$A$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Printer</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent4"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sales!$B$2:$M$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>January</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>February </c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>March</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>April</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>May</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>June</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>July</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>August</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>September</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>October</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>November</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>December</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sales!$B$4:$M$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>75</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>40</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>65</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>24</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>71</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>57</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>61</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>34</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>41</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>58</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>91</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-5D2B-4C90-90DA-A14D8DC45BC7}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sales!$A$6</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Staplers</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sales!$B$2:$M$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>January</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>February </c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>March</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>April</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>May</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>June</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>July</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>August</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>September</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>October</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>November</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>December</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sales!$B$6:$M$6</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>25</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>18</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>33</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>17</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>37</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>35</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>24</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>19</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>16</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000004-5D2B-4C90-90DA-A14D8DC45BC7}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="5"/>
+                <c:order val="5"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sales!$A$8</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Highlighters</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent6">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sales!$B$2:$M$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>January</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>February </c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>March</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>April</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>May</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>June</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>July</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>August</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>September</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>October</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>November</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>December</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sales!$B$8:$M$8</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>40</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>33</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>48</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>25</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>52</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>47</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>39</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>34</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>31</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000005-5D2B-4C90-90DA-A14D8DC45BC7}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="6"/>
+                <c:order val="6"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sales!$A$9</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Pens</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2">
+                        <a:lumMod val="80000"/>
+                        <a:lumOff val="20000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sales!$B$2:$M$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>January</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>February </c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>March</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>April</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>May</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>June</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>July</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>August</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>September</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>October</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>November</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>December</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sales!$B$9:$M$9</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>21</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>29</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>13</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>33</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>28</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>31</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>15</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>12</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000006-5D2B-4C90-90DA-A14D8DC45BC7}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="99077855"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="99078335"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="99078335"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="99077855"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="208">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="15875">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="208">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="15875">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="208">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="15875">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>520699</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>80434</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>484717</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E52B34FE-AA26-4888-BC47-3D2276F34794}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>12699</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>137583</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>474133</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>150283</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8732C1E-6F4B-8DAD-BDCA-D689AE9DAA52}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>323849</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>136524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>306917</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>37041</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33849C2E-BD57-89EF-789E-8FD293410CE8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>59267</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>83610</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED86CC8B-F9CB-49AD-9C3C-6F6BD799AB60}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>252941</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>42335</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>305857</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>86785</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27D3D515-B245-415D-A063-666FAB2696C8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -215,7 +9918,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -321,7 +10024,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -463,7 +10166,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -474,16 +10177,16 @@
   <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="A2" sqref="A2:M9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="19.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.44140625" customWidth="1"/>
+    <col min="1" max="1" width="19.41015625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.41015625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A1" s="3" t="s">
         <v>21</v>
       </c>
@@ -501,7 +10204,7 @@
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -542,7 +10245,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -587,7 +10290,7 @@
         <v>5071</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -632,7 +10335,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -677,7 +10380,7 @@
         <v>1583</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -722,7 +10425,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -767,7 +10470,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -812,7 +10515,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -857,7 +10560,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
@@ -920,6 +10623,7 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -927,12 +10631,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7B444C6-5638-496B-93B2-259D582C3A1D}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>